--- a/ArduinoProjectHub_20200518/Esp-01s_TEST_20200507/esp8266_at_command_examples_cn_20200616.xlsx
+++ b/ArduinoProjectHub_20200518/Esp-01s_TEST_20200507/esp8266_at_command_examples_cn_20200616.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>OK</t>
   </si>
@@ -45,32 +45,6 @@
   </si>
   <si>
     <t>AT+CIPMODE=0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">断开 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="HelveticaNeue-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TCP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="PingFangSC-Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>连接</t>
-    </r>
-  </si>
-  <si>
-    <t>AT+CIPCLOSE</t>
   </si>
   <si>
     <t>连接路由器</t>
@@ -91,11 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLOSED
-OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">&gt; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,21 +331,222 @@
   </si>
   <si>
     <t xml:space="preserve"> /r/n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">响应 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>断开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="PingFangSC-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TCP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CIPCLOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSED
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> /r/n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">响应 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OneNET</t>
+    <t>AT+CIPSTATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS:&lt;stat&gt;
++CIPSTATUS:&lt;link ID&gt;,&lt;type&gt;,&lt;remote IP&gt;,&lt;remote port&gt;,&lt;local port&gt;,&lt;tetype&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/r/n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CWQAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /r/n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 UART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+UART=9600,8,1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>断开与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="PingFangSC-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的连接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="PingFangSC-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>⽹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>络连接信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OK  /*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Osaka-Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>*/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AT+SAVETRANSLINK  /*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Osaka-Mono"/>
+        <family val="2"/>
+      </rPr>
+      <t>*/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存透传到 Flash  /*禁止*/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,12 +596,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="HelveticaNeue-Light"/>
@@ -457,6 +621,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Osaka-Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="PingFangSC-Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -466,7 +684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -698,13 +916,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,48 +988,24 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,16 +1015,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
@@ -792,43 +1033,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,308 +1444,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H107"/>
+  <dimension ref="B1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
     <col min="3" max="5" width="40.625" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7"/>
+    <col min="6" max="6" width="9" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:8" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="37" t="s">
+    </row>
+    <row r="4" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B4" s="33">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B5" s="33">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B8" s="37">
+        <v>6</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="2:8" ht="80.099999999999994" customHeight="1">
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B12" s="27">
+        <v>10</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B14" s="14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B15" s="14">
+        <v>12</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B16" s="43">
+        <v>13</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="57"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B17" s="14">
+        <v>14</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B18" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B19" s="14">
+        <v>16</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="2:8" ht="32.1" customHeight="1">
+      <c r="B20" s="28">
+        <v>17</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F20" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="2:8" ht="48" customHeight="1" thickBot="1">
+      <c r="B21" s="32">
+        <v>18</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B3" s="20">
-        <v>1</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B4" s="20">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B5" s="20">
-        <v>3</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="80.099999999999994" customHeight="1">
-      <c r="B6" s="21">
-        <v>4</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B7" s="21">
-        <v>5</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B8" s="21">
-        <v>6</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B9" s="41">
-        <v>7</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B11" s="22">
-        <v>8</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B12" s="22">
-        <v>9</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B13" s="22">
-        <v>10</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B14" s="22">
-        <v>11</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="2:8" ht="32.1" customHeight="1">
-      <c r="B15" s="22">
-        <v>12</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:8" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B16" s="23">
-        <v>13</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="5:5" ht="20.100000000000001" customHeight="1">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="22" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" spans="5:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" spans="5:5" ht="20.100000000000001" customHeight="1"/>
+      <c r="E21" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="58"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1"/>
     <row r="33" ht="20.100000000000001" customHeight="1"/>
     <row r="34" ht="20.100000000000001" customHeight="1"/>
     <row r="35" ht="20.100000000000001" customHeight="1"/>
@@ -1495,17 +1898,22 @@
     <row r="98" ht="20.100000000000001" customHeight="1"/>
     <row r="99" ht="20.100000000000001" customHeight="1"/>
     <row r="100" ht="20.100000000000001" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="101" ht="20.100000000000001" customHeight="1"/>
+    <row r="102" ht="20.100000000000001" customHeight="1"/>
+    <row r="103" ht="20.100000000000001" customHeight="1"/>
+    <row r="104" ht="20.100000000000001" customHeight="1"/>
+    <row r="105" ht="20.100000000000001" customHeight="1"/>
     <row r="106" ht="13.5" customHeight="1"/>
     <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
